--- a/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
+++ b/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7346D495-AC5A-4EA6-9408-3FC9DB94B5DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nd+wG5WmoXHlPB2qPUhqicrnVlfAZlMZvhzuh414fPJaUB1sNM3ltxY56sPEQQ4l+vv9GF/i+PHwP/dW3qzzGA==" workbookSaltValue="lZ0oCjXhczZxW8tnxUVyIg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB51A6-E4D6-4111-8981-912A5BC96990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zko02fPJVFYj9WIJDZIfVL0HyETKw/HJQUlxl6tOfDrOivZzijZeH1MXZc+ChRESOMGrZXHK5oA/aPnNOsacVg==" workbookSaltValue="Z53STaw+t/SNdXb8vmakVA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="Koibatek">'do not delete1'!$Q$1</definedName>
     <definedName name="KoibatekCol">'do not delete1'!$Q$1:$Q$5</definedName>
     <definedName name="KuresoiNorth">'do not delete1'!$R$1</definedName>
-    <definedName name="KuresoiNorthCol">'do not delete1'!$R$1:$R$2</definedName>
+    <definedName name="KuresoiNorthCol">'do not delete1'!$R$1:$R$3</definedName>
     <definedName name="KuresoiSouth">'do not delete1'!$S$1</definedName>
     <definedName name="KuresoiSouthCol">'do not delete1'!$S$1:$S$3</definedName>
     <definedName name="Laikipia">'do not delete1'!$D$1</definedName>
@@ -58,7 +58,7 @@
     <definedName name="LaikipiaNorth">'do not delete1'!$U$1</definedName>
     <definedName name="LaikipiaNorthCol">'do not delete1'!$U$1:$U$3</definedName>
     <definedName name="LaikipiaWest">'do not delete1'!$V$1</definedName>
-    <definedName name="LaikipiaWestCol">'do not delete1'!$V$1:$V$7</definedName>
+    <definedName name="LaikipiaWestCol">'do not delete1'!$V$1:$V$8</definedName>
     <definedName name="Loima">'do not delete1'!$AQ$1</definedName>
     <definedName name="LoimaCol">'do not delete1'!$AQ$1</definedName>
     <definedName name="Loitokitok">'do not delete1'!$X$1</definedName>
@@ -121,13 +121,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="89" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -135,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="304">
   <si>
     <t>Total</t>
   </si>
@@ -1197,6 +1199,9 @@
   </si>
   <si>
     <t>St Joseph Nursing home [16409]</t>
+  </si>
+  <si>
+    <t>Maina Village Dispensary [10672]</t>
   </si>
 </sst>
 </file>
@@ -1363,6 +1368,7 @@
       <sz val="10"/>
       <color indexed="0"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1427,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1760,11 +1766,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1908,11 +1923,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1941,30 +1969,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2675,7 +2693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -3149,8 +3167,8 @@
   </sheetPr>
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,7 +3291,7 @@
       <c r="V1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="63" t="s">
         <v>301</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -3422,7 +3440,7 @@
       <c r="V2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="W2" s="63" t="s">
         <v>77</v>
       </c>
       <c r="X2" s="16" t="s">
@@ -3550,6 +3568,9 @@
       <c r="Q3" s="16" t="s">
         <v>127</v>
       </c>
+      <c r="R3" s="62" t="s">
+        <v>302</v>
+      </c>
       <c r="S3" s="16" t="s">
         <v>152</v>
       </c>
@@ -3562,7 +3583,7 @@
       <c r="V3" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="W3" s="80" t="s">
+      <c r="W3" s="63" t="s">
         <v>299</v>
       </c>
       <c r="X3" s="16" t="s">
@@ -3686,7 +3707,7 @@
       <c r="V4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="63" t="s">
         <v>104</v>
       </c>
       <c r="X4" s="16" t="s">
@@ -3694,9 +3715,6 @@
       </c>
       <c r="Y4" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="AA4" s="79" t="s">
-        <v>302</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>157</v>
@@ -3800,7 +3818,7 @@
       <c r="V5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="63" t="s">
         <v>131</v>
       </c>
       <c r="X5" s="16" t="s">
@@ -3893,7 +3911,7 @@
       <c r="V6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="W6" s="80" t="s">
+      <c r="W6" s="63" t="s">
         <v>300</v>
       </c>
       <c r="X6" s="16" t="s">
@@ -3964,7 +3982,7 @@
       <c r="N7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="62" t="s">
         <v>267</v>
       </c>
       <c r="X7" s="16" t="s">
@@ -4006,6 +4024,9 @@
       <c r="K8" s="19"/>
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
+      <c r="V8" s="82" t="s">
+        <v>303</v>
+      </c>
       <c r="X8" s="16" t="s">
         <v>203</v>
       </c>
@@ -4060,7 +4081,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
-      <c r="AB10" s="81" t="s">
+      <c r="AB10" s="64" t="s">
         <v>297</v>
       </c>
       <c r="AE10" s="16" t="s">
@@ -4273,7 +4294,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4w24Mj3O1eHiy4yWtRXZh6KX3znC5A47Eh8QLcZov8GhLl7AJxylf8DS349jpoz2OUBRZjl7WBiVKmNgQTBzng==" saltValue="n0saghMJgWnOlVzpYZ444Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G2CfvmI3r8czMkIrxjIyCzenx2vLp4TGffKysp1EqwkmDLQnSR7Jefcxv5QTLsdlTHPbIMr9aPKZUSkKd69Hhw==" saltValue="uw2BQ45gRCBpVfAedGFpGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4290,7 +4311,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,64 +4366,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +4533,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -5177,12 +5198,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -5300,10 +5321,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -5421,10 +5442,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -5691,78 +5712,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -5835,8 +5856,10 @@
       <c r="J24" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IcWAMdsUlYMmAUIyjTLJOlA6k7vKEGEOgfYVC34k78LcJZSyDDAD0z2OOaySIRsj0/bzMdBVm8Mo3+lq1e5BHA==" saltValue="Tu+/0wtfHVzL5luzA+7+6A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="biPEfVR8nv3MOmGlNQsBp5F7bqiKb8gzQPTZ6iKOeFA9o9CO4VkwuRW+A6UvHn60LPEWvjwq8AroUQregTjxzw==" saltValue="Cq+IQKiKNNMN5Vmd15SNaQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:D13"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5855,44 +5878,42 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5989,64 +6010,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6177,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -6821,12 +6842,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6944,10 +6965,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -7065,10 +7086,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -7335,78 +7356,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -7481,62 +7502,62 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yt7eXD4jiHTOMUN2BDix72s2W0uOyieoXWEitdY+1L4ZZNe3raSSdIdo4IIvfiHb+LuQcn9ZPbBAvcsbPf6uSA==" saltValue="bVd/JFnwBP+onyLurRyuOQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7633,64 +7654,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7800,7 +7821,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -8465,12 +8486,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -8588,10 +8609,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -8709,10 +8730,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -8979,78 +9000,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -9125,62 +9146,62 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XTGd5g+zEdJKyL+Ye2hGiYwgZlXGtOUWjONxwyC4GKjaaMOIsGhFzdulLRfie8XqJ82JShxO5lklxKjuILR4JQ==" saltValue="2g5Yf5+ARkc2KT6iyHgOAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9277,64 +9298,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9444,7 +9465,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -10109,12 +10130,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -10232,10 +10253,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -10353,10 +10374,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -10623,78 +10644,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -10769,62 +10790,62 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jonEp2DkkuuMdmW/sTp9BwswAkvrVcWYY3TCpgTrRvTtHmFRJdAhUf8JEOjo6GzgXBV38RGRB/V62gSvaoVlMQ==" saltValue="fjObU97vfornIR9DD1pG4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10921,64 +10942,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11088,7 +11109,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -11753,12 +11774,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -11876,10 +11897,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -11997,10 +12018,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -12267,78 +12288,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -12413,6 +12434,9 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Q1hfIFbyJu77en5EqM4mRebZ7fk9BZjeGE4gh7amTenNuPTcDbqVdmRp/Dp7yWJRAIelgTsW1qFOZYM2ZRCCbw==" saltValue="pBLmT0d8/UvsELsibA6FnA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A11:D13"/>
@@ -12430,45 +12454,42 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
+++ b/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB51A6-E4D6-4111-8981-912A5BC96990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zko02fPJVFYj9WIJDZIfVL0HyETKw/HJQUlxl6tOfDrOivZzijZeH1MXZc+ChRESOMGrZXHK5oA/aPnNOsacVg==" workbookSaltValue="Z53STaw+t/SNdXb8vmakVA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB63AFD-DD6D-4565-8658-AA11DAE0AF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="V9OFDkbBcknpmpVXltxmP23FalfeuWk2IRnNHqD4i4RDV0NFVWLtrXwniLPA6gzy7SGaHkjDuNrq1j21ljCEJQ==" workbookSaltValue="rWfTFrG70oRX3+VtLx469w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <definedName name="SamburuCentralCol">'do not delete1'!$AM$1:$AM$6</definedName>
     <definedName name="SamburuCol">'do not delete1'!$G$1:$G$3</definedName>
     <definedName name="SamburuEast">'do not delete1'!$AN$1</definedName>
-    <definedName name="SamburuEastCol">'do not delete1'!$AN$1:$AN$9</definedName>
+    <definedName name="SamburuEastCol">'do not delete1'!$AN$1:$AN$10</definedName>
     <definedName name="SamburuNorth">'do not delete1'!$AO$1</definedName>
     <definedName name="SamburuNorthCol">'do not delete1'!$AO$1:$AO$7</definedName>
     <definedName name="subcounty">'do not delete1'!$I$1:$I$40</definedName>
@@ -121,7 +121,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="305">
   <si>
     <t>Total</t>
   </si>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>Maina Village Dispensary [10672]</t>
+  </si>
+  <si>
+    <t>Archers Post Sub-County Hospital [24233]</t>
   </si>
 </sst>
 </file>
@@ -1930,11 +1933,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1982,7 +1985,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2693,7 +2696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -3167,8 +3170,8 @@
   </sheetPr>
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,7 +4027,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
-      <c r="V8" s="82" t="s">
+      <c r="V8" s="65" t="s">
         <v>303</v>
       </c>
       <c r="X8" s="16" t="s">
@@ -4087,6 +4090,9 @@
       <c r="AE10" s="16" t="s">
         <v>209</v>
       </c>
+      <c r="AN10" s="62" t="s">
+        <v>304</v>
+      </c>
       <c r="AR10" s="21" t="s">
         <v>245</v>
       </c>
@@ -4294,7 +4300,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G2CfvmI3r8czMkIrxjIyCzenx2vLp4TGffKysp1EqwkmDLQnSR7Jefcxv5QTLsdlTHPbIMr9aPKZUSkKd69Hhw==" saltValue="uw2BQ45gRCBpVfAedGFpGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gVwka7iagnTMAbSNGTgTlRI9dWA4UPSX10HcZJYjoF+sFUx4X9A1GdNVSJ6BQ7GrNr7b4oJj39xlijpsDjajQg==" saltValue="nyliUS0ICzvr8PIeEBL0Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4311,7 +4317,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,63 +4372,63 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="65"/>
+      <c r="AI1" s="66"/>
       <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
@@ -5858,8 +5864,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="biPEfVR8nv3MOmGlNQsBp5F7bqiKb8gzQPTZ6iKOeFA9o9CO4VkwuRW+A6UvHn60LPEWvjwq8AroUQregTjxzw==" saltValue="Cq+IQKiKNNMN5Vmd15SNaQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:D13"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5878,6 +5882,8 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
@@ -6010,63 +6016,63 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="65"/>
+      <c r="AI1" s="66"/>
       <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
@@ -7502,7 +7508,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yt7eXD4jiHTOMUN2BDix72s2W0uOyieoXWEitdY+1L4ZZNe3raSSdIdo4IIvfiHb+LuQcn9ZPbBAvcsbPf6uSA==" saltValue="bVd/JFnwBP+onyLurRyuOQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -7522,6 +7527,7 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
@@ -7654,63 +7660,63 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="65"/>
+      <c r="AI1" s="66"/>
       <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
@@ -9146,7 +9152,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XTGd5g+zEdJKyL+Ye2hGiYwgZlXGtOUWjONxwyC4GKjaaMOIsGhFzdulLRfie8XqJ82JShxO5lklxKjuILR4JQ==" saltValue="2g5Yf5+ARkc2KT6iyHgOAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -9166,6 +9171,7 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
@@ -9298,63 +9304,63 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="65"/>
+      <c r="AI1" s="66"/>
       <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
@@ -10790,7 +10796,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jonEp2DkkuuMdmW/sTp9BwswAkvrVcWYY3TCpgTrRvTtHmFRJdAhUf8JEOjo6GzgXBV38RGRB/V62gSvaoVlMQ==" saltValue="fjObU97vfornIR9DD1pG4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -10810,6 +10815,7 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
@@ -10942,63 +10948,63 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
         <v>275</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="65"/>
+      <c r="AI1" s="66"/>
       <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
@@ -12434,16 +12440,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Q1hfIFbyJu77en5EqM4mRebZ7fk9BZjeGE4gh7amTenNuPTcDbqVdmRp/Dp7yWJRAIelgTsW1qFOZYM2ZRCCbw==" saltValue="pBLmT0d8/UvsELsibA6FnA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="I16:AJ16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AJ17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
@@ -12454,6 +12459,7 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">

--- a/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
+++ b/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB63AFD-DD6D-4565-8658-AA11DAE0AF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="V9OFDkbBcknpmpVXltxmP23FalfeuWk2IRnNHqD4i4RDV0NFVWLtrXwniLPA6gzy7SGaHkjDuNrq1j21ljCEJQ==" workbookSaltValue="rWfTFrG70oRX3+VtLx469w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot PNS" sheetId="6" state="hidden" r:id="rId1"/>
@@ -66,7 +64,7 @@
     <definedName name="Marigat">'do not delete1'!$Y$1</definedName>
     <definedName name="MarigatCol">'do not delete1'!$Y$1:$Y$6</definedName>
     <definedName name="Mogotio">'do not delete1'!$Z$1</definedName>
-    <definedName name="MogotioCol">'do not delete1'!$Z$1:$Z$3</definedName>
+    <definedName name="MogotioCol">'do not delete1'!$Z$1:$Z$4</definedName>
     <definedName name="Molo">'do not delete1'!$AA$1</definedName>
     <definedName name="MoloCol">'do not delete1'!$AA$1:$AA$4</definedName>
     <definedName name="Naivasha">'do not delete1'!$AB$1</definedName>
@@ -119,9 +117,9 @@
     <definedName name="TurkanaWest">'do not delete1'!$AV$1</definedName>
     <definedName name="TurkanaWestCol">'do not delete1'!$AV$1:$AV$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="65" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -137,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="306">
   <si>
     <t>Total</t>
   </si>
@@ -1206,11 +1204,14 @@
   <si>
     <t>Archers Post Sub-County Hospital [24233]</t>
   </si>
+  <si>
+    <t>Mogotio Sub County Hospital [20005]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -1782,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1936,8 +1937,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1972,20 +1989,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2377,7 +2381,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2E70B931-097B-4B61-842C-0EE9B97B9255}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="41"/>
       <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
@@ -2402,7 +2406,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Peter Njoka" refreshedDate="43178.468770717591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{036BB2E0-1155-4AF8-BE07-5596200D2B65}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Peter Njoka" refreshedDate="43178.468770717591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:Z10" sheet="site2" r:id="rId2"/>
   </cacheSource>
@@ -2696,7 +2700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -2814,23 +2818,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2866,23 +2853,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3058,7 +3028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8AC2CF-B934-485F-A5B9-D8FF1184595B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:C20"/>
   <sheetViews>
@@ -3164,14 +3134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F600ED5F-48E7-45AA-A5F1-A8EEF2104B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3171,7 @@
     <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="35" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="42.42578125" bestFit="1" customWidth="1"/>
@@ -3215,7 +3185,7 @@
     <col min="37" max="37" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="29.140625" bestFit="1" customWidth="1"/>
@@ -3595,7 +3565,7 @@
       <c r="Y3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="83" t="s">
         <v>134</v>
       </c>
       <c r="AA3" s="16" t="s">
@@ -3716,8 +3686,11 @@
       <c r="X4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="26" t="s">
         <v>156</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>157</v>
@@ -4300,24 +4273,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gVwka7iagnTMAbSNGTgTlRI9dWA4UPSX10HcZJYjoF+sFUx4X9A1GdNVSJ6BQ7GrNr7b4oJj39xlijpsDjajQg==" saltValue="nyliUS0ICzvr8PIeEBL0Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="C599" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E16023-063D-497D-82FA-0B60CE1DCD18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,64 +4345,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4512,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="78"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -5204,12 +5177,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -5327,10 +5300,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -5448,10 +5421,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -5718,78 +5691,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="81" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -5864,6 +5837,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="biPEfVR8nv3MOmGlNQsBp5F7bqiKb8gzQPTZ6iKOeFA9o9CO4VkwuRW+A6UvHn60LPEWvjwq8AroUQregTjxzw==" saltValue="Cq+IQKiKNNMN5Vmd15SNaQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:D13"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5880,10 +5857,6 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
@@ -5924,23 +5897,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{1EEDEC64-D9EF-4902-8740-6DA5760B9D44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{E6646214-1C89-441A-9369-DC69E8FA64FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{CC99824B-0744-45CF-BCD4-F950544DD4F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{D094353E-47C0-4E2D-AA9D-486187616635}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{6068FB63-4B72-496D-B379-456F11436676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{7F377F24-5CDE-4323-A9A1-A2C523FAF80E}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
   </dataValidations>
@@ -5950,7 +5923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B204C7-6EA9-4163-9705-8A58AEE9E97A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6016,64 +5989,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6183,7 +6156,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="78"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -6848,12 +6821,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6971,10 +6944,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -7092,10 +7065,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -7362,78 +7335,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="81" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -7508,11 +7481,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yt7eXD4jiHTOMUN2BDix72s2W0uOyieoXWEitdY+1L4ZZNe3raSSdIdo4IIvfiHb+LuQcn9ZPbBAvcsbPf6uSA==" saltValue="bVd/JFnwBP+onyLurRyuOQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -7528,6 +7496,11 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
@@ -7568,23 +7541,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{B4A0240A-F17A-4F7E-8703-2DFDAE2F4735}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{2D1D10BE-2F28-4073-9B1B-F1C46CDB7841}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{23B53489-5A7D-4055-941D-B6C53839D9CA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9EF270B8-9F16-4699-914B-9EA2E87273A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{821A4389-BB4D-459B-86E9-7866F953F88A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{54FB97D5-2BF3-4BD5-974D-702D17CC9F65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7594,7 +7567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC59E50D-963B-4A9D-B76B-F9019C8E61B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7660,64 +7633,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7827,7 +7800,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="78"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -8492,12 +8465,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -8615,10 +8588,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -8736,10 +8709,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -9006,78 +8979,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="81" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -9152,11 +9125,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XTGd5g+zEdJKyL+Ye2hGiYwgZlXGtOUWjONxwyC4GKjaaMOIsGhFzdulLRfie8XqJ82JShxO5lklxKjuILR4JQ==" saltValue="2g5Yf5+ARkc2KT6iyHgOAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -9172,6 +9140,11 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
@@ -9212,23 +9185,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{D7316B29-74E4-4936-9D18-3CC5DE7E0F5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{33743590-236C-4B4C-B825-DC696C43807C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{47578843-B7B5-453B-A799-4DFD9C9DA019}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{CC4ECB06-1365-4BE4-B490-005E4AE1CFB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{51350B7A-6B78-49F6-B58E-D6412F52A180}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{552E9236-4330-4E94-A678-0F096B061252}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
   </dataValidations>
@@ -9238,7 +9211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6996E-9569-43A7-9153-35327FC0C522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9304,64 +9277,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9471,7 +9444,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="78"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -10136,12 +10109,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -10259,10 +10232,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -10380,10 +10353,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -10650,78 +10623,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="81" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -10796,11 +10769,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jonEp2DkkuuMdmW/sTp9BwswAkvrVcWYY3TCpgTrRvTtHmFRJdAhUf8JEOjo6GzgXBV38RGRB/V62gSvaoVlMQ==" saltValue="fjObU97vfornIR9DD1pG4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -10816,6 +10784,11 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
@@ -10856,23 +10829,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{2A964227-0034-40A3-A921-0EBF2FC10AA6}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{570EC320-AC7F-4436-9162-DED25600B5B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{09C00065-0FF6-4B70-8E98-A9C459848CA0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9EA6021B-9706-40C4-8EF1-72509392B66F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{111B3983-FD6E-444C-B437-9B5BFCD5B125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{3F1B97FB-CB02-45EF-A27F-A448450988A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10882,7 +10855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68F0B44-26E0-4971-B2AE-858F702F370F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10948,64 +10921,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11115,7 +11088,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="78"/>
+      <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -11780,12 +11753,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -11903,10 +11876,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -12024,10 +11997,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -12294,78 +12267,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="81" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -12440,6 +12413,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Q1hfIFbyJu77en5EqM4mRebZ7fk9BZjeGE4gh7amTenNuPTcDbqVdmRp/Dp7yWJRAIelgTsW1qFOZYM2ZRCCbw==" saltValue="pBLmT0d8/UvsELsibA6FnA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
     <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -12456,10 +12433,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
@@ -12500,23 +12473,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{09D76B47-935D-4D8E-9508-183E0B19FB20}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{EB4D96A3-07C0-43EA-AB7F-28DC0EAAF0FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{158AB72F-7A9A-467A-BFFA-6E8F7F459D47}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{060CC9A7-A2FA-4860-981F-478B40F673C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{544A8E61-FD4E-4DA1-BC55-2D924EE2BF7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{976050CC-E078-447B-853A-7548D3D41A40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
+++ b/web/pns/PNS_Daily_Template_20190514_V_4.xlsx
@@ -5,9 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XjIRP4FEvU5wq+eePL/KWJirVeafCOVrit9UkJZQ3iXbKbhI5roXS043h2AgqHYTBULmv2lG1kWXo/xhzn8saQ==" workbookSaltValue="OeMcxk3e/U9cPznon5sm5w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
@@ -22,104 +23,64 @@
   </sheets>
   <definedNames>
     <definedName name="Baringo">'do not delete1'!$B$1</definedName>
-    <definedName name="BaringoCentral">'do not delete1'!$J$1</definedName>
-    <definedName name="BaringoCentralCol">'do not delete1'!$J$1:$J$6</definedName>
+    <definedName name="BaringoCentral">'do not delete1'!$G$1</definedName>
+    <definedName name="BaringoCentralCol">'do not delete1'!$G$1:$G$6</definedName>
     <definedName name="BaringoCol">'do not delete1'!$B$1:$B$6</definedName>
-    <definedName name="BaringoNorth">'do not delete1'!$K$1</definedName>
-    <definedName name="BaringoNorthCol">'do not delete1'!$K$1:$K$3</definedName>
-    <definedName name="contactsfrom">'do not delete1'!$AW$1:$AW$5</definedName>
-    <definedName name="county">'do not delete1'!$A$1:$A$7</definedName>
-    <definedName name="Gilgil">'do not delete1'!$L$1</definedName>
-    <definedName name="GilgilCol">'do not delete1'!$L$1:$L$5</definedName>
-    <definedName name="Kajiado">'do not delete1'!$C$1</definedName>
-    <definedName name="KajiadoCentral">'do not delete1'!$M$1</definedName>
-    <definedName name="KajiadoCentralCol">'do not delete1'!$M$1:$M$4</definedName>
-    <definedName name="KajiadoCol">'do not delete1'!$C$1:$C$5</definedName>
-    <definedName name="KajiadoEast">'do not delete1'!$N$1</definedName>
-    <definedName name="KajiadoEastCol">'do not delete1'!$N$1:$N$7</definedName>
-    <definedName name="KajiadoNorth">'do not delete1'!$O$1</definedName>
-    <definedName name="KajiadoNorthCol">'do not delete1'!$O$1:$O$6</definedName>
-    <definedName name="KajiadoWest">'do not delete1'!$P$1</definedName>
-    <definedName name="KajiadoWestCol">'do not delete1'!$P$1:$P$3</definedName>
-    <definedName name="Kibish">'do not delete1'!$AP$1</definedName>
-    <definedName name="KibishCol">'do not delete1'!$AP$1</definedName>
-    <definedName name="Koibatek">'do not delete1'!$Q$1</definedName>
-    <definedName name="KoibatekCol">'do not delete1'!$Q$1:$Q$5</definedName>
-    <definedName name="KuresoiNorth">'do not delete1'!$R$1</definedName>
-    <definedName name="KuresoiNorthCol">'do not delete1'!$R$1:$R$3</definedName>
-    <definedName name="KuresoiSouth">'do not delete1'!$S$1</definedName>
-    <definedName name="KuresoiSouthCol">'do not delete1'!$S$1:$S$3</definedName>
-    <definedName name="Laikipia">'do not delete1'!$D$1</definedName>
-    <definedName name="LaikipiaCol">'do not delete1'!$D$1:$D$5</definedName>
-    <definedName name="LaikipiaEast">'do not delete1'!$T$1</definedName>
-    <definedName name="LaikipiaEastCol">'do not delete1'!$T$1:$T$6</definedName>
-    <definedName name="LaikipiaNorth">'do not delete1'!$U$1</definedName>
-    <definedName name="LaikipiaNorthCol">'do not delete1'!$U$1:$U$3</definedName>
-    <definedName name="LaikipiaWest">'do not delete1'!$V$1</definedName>
-    <definedName name="LaikipiaWestCol">'do not delete1'!$V$1:$V$8</definedName>
-    <definedName name="Loima">'do not delete1'!$AQ$1</definedName>
-    <definedName name="LoimaCol">'do not delete1'!$AQ$1</definedName>
-    <definedName name="Loitokitok">'do not delete1'!$X$1</definedName>
-    <definedName name="LoitokitokCol">'do not delete1'!$X$1:$X$8</definedName>
-    <definedName name="Marigat">'do not delete1'!$Y$1</definedName>
-    <definedName name="MarigatCol">'do not delete1'!$Y$1:$Y$6</definedName>
-    <definedName name="Mogotio">'do not delete1'!$Z$1</definedName>
-    <definedName name="MogotioCol">'do not delete1'!$Z$1:$Z$4</definedName>
-    <definedName name="Molo">'do not delete1'!$AA$1</definedName>
-    <definedName name="MoloCol">'do not delete1'!$AA$1:$AA$4</definedName>
-    <definedName name="Naivasha">'do not delete1'!$AB$1</definedName>
-    <definedName name="NaivashaCol">'do not delete1'!$AB$1:$AB$10</definedName>
-    <definedName name="Nakuru">'do not delete1'!$E$1</definedName>
-    <definedName name="NakuruCol">'do not delete1'!$E$1:$E$11</definedName>
-    <definedName name="NakuruEast">'do not delete1'!$AC$1</definedName>
-    <definedName name="NakuruEastCol">'do not delete1'!$AC$1:$AC$8</definedName>
-    <definedName name="NakuruNorth">'do not delete1'!$AD$1</definedName>
-    <definedName name="NakuruNorthCol">'do not delete1'!$AD$1:$AD$6</definedName>
-    <definedName name="NakuruWest">'do not delete1'!$AE$1</definedName>
-    <definedName name="NakuruWestCol">'do not delete1'!$AE$1:$AE$12</definedName>
-    <definedName name="Narok">'do not delete1'!$F$1</definedName>
-    <definedName name="NarokCol">'do not delete1'!$F$1:$F$4</definedName>
-    <definedName name="NarokEast">'do not delete1'!$AF$1</definedName>
-    <definedName name="NarokEastCol">'do not delete1'!$AF$1:$AF$4</definedName>
-    <definedName name="NarokNorth">'do not delete1'!$AG$1</definedName>
-    <definedName name="NarokNorthCol">'do not delete1'!$AG$1:$AG$6</definedName>
-    <definedName name="NarokSouth">'do not delete1'!$AH$1</definedName>
-    <definedName name="NarokSouthCol">'do not delete1'!$AH$1:$AH$5</definedName>
-    <definedName name="NarokWest">'do not delete1'!$AI$1</definedName>
-    <definedName name="NarokWestCol">'do not delete1'!$AI$1:$AI$6</definedName>
-    <definedName name="Njoro">'do not delete1'!$AJ$1</definedName>
-    <definedName name="NjoroCol">'do not delete1'!$AJ$1:$AJ$7</definedName>
-    <definedName name="Nyahururu">'do not delete1'!$W$1</definedName>
-    <definedName name="NyahururuCol">'do not delete1'!$W$1:$W$6</definedName>
-    <definedName name="Rongai">'do not delete1'!$AK$1</definedName>
-    <definedName name="RongaiCol">'do not delete1'!$AK$1:$AK$5</definedName>
-    <definedName name="Samburu">'do not delete1'!$G$1</definedName>
-    <definedName name="SamburuCentral">'do not delete1'!$AM$1</definedName>
-    <definedName name="SamburuCentralCol">'do not delete1'!$AM$1:$AM$6</definedName>
-    <definedName name="SamburuCol">'do not delete1'!$G$1:$G$3</definedName>
-    <definedName name="SamburuEast">'do not delete1'!$AN$1</definedName>
-    <definedName name="SamburuEastCol">'do not delete1'!$AN$1:$AN$10</definedName>
-    <definedName name="SamburuNorth">'do not delete1'!$AO$1</definedName>
-    <definedName name="SamburuNorthCol">'do not delete1'!$AO$1:$AO$7</definedName>
-    <definedName name="subcounty">'do not delete1'!$I$1:$I$40</definedName>
-    <definedName name="Subukia">'do not delete1'!$AL$1</definedName>
-    <definedName name="SubukiaCol">'do not delete1'!$AL$1:$AL$2</definedName>
-    <definedName name="Turkana">'do not delete1'!$H$1</definedName>
-    <definedName name="TurkanaCentral">'do not delete1'!$AR$1</definedName>
-    <definedName name="TurkanaCentralCol">'do not delete1'!$AR$1:$AR$10</definedName>
-    <definedName name="TurkanaCol">'do not delete1'!$H$1:$H$7</definedName>
-    <definedName name="TurkanaEast">'do not delete1'!$AS$1</definedName>
-    <definedName name="TurkanaEastCol">'do not delete1'!$AS$1:$AS$4</definedName>
-    <definedName name="TurkanaNorth">'do not delete1'!$AT$1</definedName>
-    <definedName name="TurkanaNorthCol">'do not delete1'!$AT$1:$AT$3</definedName>
-    <definedName name="TurkanaSouth">'do not delete1'!$AU$1</definedName>
-    <definedName name="TurkanaSouthCol">'do not delete1'!$AU$1:$AU$7</definedName>
-    <definedName name="TurkanaWest">'do not delete1'!$AV$1</definedName>
-    <definedName name="TurkanaWestCol">'do not delete1'!$AV$1:$AV$4</definedName>
+    <definedName name="BaringoNorth">'do not delete1'!$H$1</definedName>
+    <definedName name="BaringoNorthCol">'do not delete1'!$H$1:$H$3</definedName>
+    <definedName name="contactsfrom">'do not delete1'!$AC$1:$AC$5</definedName>
+    <definedName name="county">'do not delete1'!$A$1:$A$4</definedName>
+    <definedName name="Gilgil">'do not delete1'!$I$1</definedName>
+    <definedName name="GilgilCol">'do not delete1'!$I$1:$I$5</definedName>
+    <definedName name="Koibatek">'do not delete1'!$J$1</definedName>
+    <definedName name="KoibatekCol">'do not delete1'!$J$1:$J$5</definedName>
+    <definedName name="KuresoiNorth">'do not delete1'!$K$1</definedName>
+    <definedName name="KuresoiNorthCol">'do not delete1'!$K$1:$K$3</definedName>
+    <definedName name="KuresoiSouth">'do not delete1'!$L$1</definedName>
+    <definedName name="KuresoiSouthCol">'do not delete1'!$L$1:$L$3</definedName>
+    <definedName name="Laikipia">'do not delete1'!$C$1</definedName>
+    <definedName name="LaikipiaCol">'do not delete1'!$C$1:$C$3</definedName>
+    <definedName name="LaikipiaEast">'do not delete1'!$M$1</definedName>
+    <definedName name="LaikipiaEastCol">'do not delete1'!$M$1:$M$9</definedName>
+    <definedName name="LaikipiaNorth">'do not delete1'!$N$1</definedName>
+    <definedName name="LaikipiaNorthCol">'do not delete1'!$N$1:$N$9</definedName>
+    <definedName name="LaikipiaWest">'do not delete1'!$O$1</definedName>
+    <definedName name="LaikipiaWestCol">'do not delete1'!$O$1:$O$17</definedName>
+    <definedName name="Marigat">'do not delete1'!$P$1</definedName>
+    <definedName name="MarigatCol">'do not delete1'!$P$1:$P$6</definedName>
+    <definedName name="Mogotio">'do not delete1'!$Q$1</definedName>
+    <definedName name="MogotioCol">'do not delete1'!$Q$1:$Q$4</definedName>
+    <definedName name="Molo">'do not delete1'!$R$1</definedName>
+    <definedName name="MoloCol">'do not delete1'!$R$1:$R$4</definedName>
+    <definedName name="Naivasha">'do not delete1'!$S$1</definedName>
+    <definedName name="NaivashaCol">'do not delete1'!$S$1:$S$10</definedName>
+    <definedName name="Nakuru">'do not delete1'!$D$1</definedName>
+    <definedName name="NakuruCol">'do not delete1'!$D$1:$D$11</definedName>
+    <definedName name="NakuruEast">'do not delete1'!$T$1</definedName>
+    <definedName name="NakuruEastCol">'do not delete1'!$T$1:$T$8</definedName>
+    <definedName name="NakuruNorth">'do not delete1'!$U$1</definedName>
+    <definedName name="NakuruNorthCol">'do not delete1'!$U$1:$U$6</definedName>
+    <definedName name="NakuruWest">'do not delete1'!$V$1</definedName>
+    <definedName name="NakuruWestCol">'do not delete1'!$V$1:$V$12</definedName>
+    <definedName name="Njoro">'do not delete1'!$W$1</definedName>
+    <definedName name="NjoroCol">'do not delete1'!$W$1:$W$7</definedName>
+    <definedName name="Rongai">'do not delete1'!$X$1</definedName>
+    <definedName name="RongaiCol">'do not delete1'!$X$1:$X$5</definedName>
+    <definedName name="Samburu">'do not delete1'!$E$1</definedName>
+    <definedName name="SamburuCentral">'do not delete1'!$Z$1</definedName>
+    <definedName name="SamburuCentralCol">'do not delete1'!$Z$1:$Z$6</definedName>
+    <definedName name="SamburuCol">'do not delete1'!$E$1:$E$3</definedName>
+    <definedName name="SamburuEast">'do not delete1'!$AA$1</definedName>
+    <definedName name="SamburuEastCol">'do not delete1'!$AA$1:$AA$10</definedName>
+    <definedName name="SamburuNorth">'do not delete1'!$AB$1</definedName>
+    <definedName name="SamburuNorthCol">'do not delete1'!$AB$1:$AB$7</definedName>
+    <definedName name="subcounty">'do not delete1'!$F$1:$F$23</definedName>
+    <definedName name="Subukia">'do not delete1'!$Y$1</definedName>
+    <definedName name="SubukiaCol">'do not delete1'!$Y$1:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="65" r:id="rId8"/>
+    <pivotCache cacheId="86" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -135,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="221">
   <si>
     <t>Total</t>
   </si>
@@ -218,30 +179,9 @@
     <t>Mogotio</t>
   </si>
   <si>
-    <t>Kajiado</t>
-  </si>
-  <si>
-    <t>Kajiado Central</t>
-  </si>
-  <si>
-    <t>Kajiado East</t>
-  </si>
-  <si>
-    <t>Kajiado North</t>
-  </si>
-  <si>
-    <t>Kajiado West</t>
-  </si>
-  <si>
-    <t>Loitokitok</t>
-  </si>
-  <si>
     <t>Laikipia</t>
   </si>
   <si>
-    <t>Laikipia Central</t>
-  </si>
-  <si>
     <t>Laikipia East</t>
   </si>
   <si>
@@ -251,9 +191,6 @@
     <t>Laikipia West</t>
   </si>
   <si>
-    <t>Nyahururu</t>
-  </si>
-  <si>
     <t>Gilgil</t>
   </si>
   <si>
@@ -284,21 +221,6 @@
     <t>Subukia</t>
   </si>
   <si>
-    <t>Narok</t>
-  </si>
-  <si>
-    <t>Narok East</t>
-  </si>
-  <si>
-    <t>Narok North</t>
-  </si>
-  <si>
-    <t>Narok South</t>
-  </si>
-  <si>
-    <t>Narok West</t>
-  </si>
-  <si>
     <t>Samburu</t>
   </si>
   <si>
@@ -311,30 +233,6 @@
     <t>Samburu North</t>
   </si>
   <si>
-    <t>Turkana</t>
-  </si>
-  <si>
-    <t>Kibish</t>
-  </si>
-  <si>
-    <t>Loima</t>
-  </si>
-  <si>
-    <t>Turkana Central</t>
-  </si>
-  <si>
-    <t>Turkana East</t>
-  </si>
-  <si>
-    <t>Turkana North</t>
-  </si>
-  <si>
-    <t>Turkana South</t>
-  </si>
-  <si>
-    <t>Turkana West</t>
-  </si>
-  <si>
     <t>Kabarnet District Hospital [14607]</t>
   </si>
   <si>
@@ -344,18 +242,6 @@
     <t>Gilgil Sub-District Hospital [14510]</t>
   </si>
   <si>
-    <t>AIC Kajido Hospital [0]</t>
-  </si>
-  <si>
-    <t>Isinya Health Centre [14582]</t>
-  </si>
-  <si>
-    <t>Embul - Bul Catholic Dispensary [14445]</t>
-  </si>
-  <si>
-    <t>Entasopia Health Centre [14469]</t>
-  </si>
-  <si>
     <t>Eldama Ravine District Hospital [14432]</t>
   </si>
   <si>
@@ -371,9 +257,6 @@
     <t>Ndindika Health Centre [15325]</t>
   </si>
   <si>
-    <t>Entarara Health Centre [14467]</t>
-  </si>
-  <si>
     <t>Kimalel Health centre [14867]</t>
   </si>
   <si>
@@ -395,18 +278,6 @@
     <t>Annex Hospital (Nakuru) [14207]</t>
   </si>
   <si>
-    <t>Enaibor Ajijik Dispensary [14454]</t>
-  </si>
-  <si>
-    <t>Enabelbel Health Centre [14453]</t>
-  </si>
-  <si>
-    <t>Entesekera Health Centre (Loita Community Health &amp; Educ. Centre) [14479]</t>
-  </si>
-  <si>
-    <t>Baraka Health Centre [17757]</t>
-  </si>
-  <si>
     <t>Huruma Dispensary [14552]</t>
   </si>
   <si>
@@ -425,18 +296,6 @@
     <t>Karunga Dispensary [14805]</t>
   </si>
   <si>
-    <t>Bisil Health Centre [14259]</t>
-  </si>
-  <si>
-    <t>Kitengela Health Centre [14950]</t>
-  </si>
-  <si>
-    <t>Fatima Maternity Hospital [14494]</t>
-  </si>
-  <si>
-    <t>Ewuaso Kedong Dispensary [14486]</t>
-  </si>
-  <si>
     <t>Esageri Health Centre [14477]</t>
   </si>
   <si>
@@ -452,9 +311,6 @@
     <t>Ngarua Health Centre [15339]</t>
   </si>
   <si>
-    <t>Illasit Medical Clinic [14567]</t>
-  </si>
-  <si>
     <t>Marigat Catholic Mission [15137]</t>
   </si>
   <si>
@@ -476,18 +332,6 @@
     <t>Bethsaida (AIC) Clinic (Nakuru) [14251]</t>
   </si>
   <si>
-    <t>Ilaiser Dispensary [14562]</t>
-  </si>
-  <si>
-    <t>Narok District Hospital [15311]</t>
-  </si>
-  <si>
-    <t>Naroosura Health Centre [15312]</t>
-  </si>
-  <si>
-    <t>Megwara Dispensary [15168]</t>
-  </si>
-  <si>
     <t>Kihingo Dispensary (CDF) [16390]</t>
   </si>
   <si>
@@ -506,18 +350,6 @@
     <t>Kiptangwanyi Dispensary [14926]</t>
   </si>
   <si>
-    <t>Kajiado District Hospital [14652]</t>
-  </si>
-  <si>
-    <t>Kitengela Medical Services [14951]</t>
-  </si>
-  <si>
-    <t>Nairobi Women Hospital Ongata Rongai [18195]</t>
-  </si>
-  <si>
-    <t>Magadi Hospital [15107]</t>
-  </si>
-  <si>
     <t>Maji Mazuri Dispensary [15111]</t>
   </si>
   <si>
@@ -533,9 +365,6 @@
     <t>Oljabet Health Centre [15404]</t>
   </si>
   <si>
-    <t>Immurtot Health Centre [14573]</t>
-  </si>
-  <si>
     <t>Marigat Sub District Hospital [15138]</t>
   </si>
   <si>
@@ -557,18 +386,6 @@
     <t>FITC Dispensary [14498]</t>
   </si>
   <si>
-    <t>Nairagie-Enkare Health Centre [15277]</t>
-  </si>
-  <si>
-    <t>Nkareta Dispensary [15363]</t>
-  </si>
-  <si>
-    <t>Olmekenyu Dispensary [15414]</t>
-  </si>
-  <si>
-    <t>Mulot Catholic Dispensary [15251]</t>
-  </si>
-  <si>
     <t>Lare Health Centre [15013]</t>
   </si>
   <si>
@@ -581,15 +398,6 @@
     <t>Rocco Dispensary [15489]</t>
   </si>
   <si>
-    <t>Namanga Health Centre [15294]</t>
-  </si>
-  <si>
-    <t>Mashuru Health Centre [15150]</t>
-  </si>
-  <si>
-    <t>Ngong Sub-District Hospital [15351]</t>
-  </si>
-  <si>
     <t>Mercy Hospital [15174]</t>
   </si>
   <si>
@@ -602,9 +410,6 @@
     <t>Olmoran Health Centre [15417]</t>
   </si>
   <si>
-    <t>Isinet Dispensary [14581]</t>
-  </si>
-  <si>
     <t>Mochongoi Health Centre [15192]</t>
   </si>
   <si>
@@ -620,18 +425,6 @@
     <t>Industrial Area Dispensary [14575]</t>
   </si>
   <si>
-    <t>Ntulele Dispensary [15367]</t>
-  </si>
-  <si>
-    <t>Olchorro Health Centre [15389]</t>
-  </si>
-  <si>
-    <t>Ololulunga District Hospital [15423]</t>
-  </si>
-  <si>
-    <t>Mulot Health Centre [17740]</t>
-  </si>
-  <si>
     <t>Mau Narok Health Centre [15156]</t>
   </si>
   <si>
@@ -644,9 +437,6 @@
     <t>St Mary's Hospital (Naivasha) [15654]</t>
   </si>
   <si>
-    <t>Simba Health Centre [15574]</t>
-  </si>
-  <si>
     <t>Timboroa Health Centre [15725]</t>
   </si>
   <si>
@@ -656,9 +446,6 @@
     <t>Rumuruti District Hospital [15502]</t>
   </si>
   <si>
-    <t>Kimana Health Centre [14868]</t>
-  </si>
-  <si>
     <t>Ol-Arabel Dispensary [15386]</t>
   </si>
   <si>
@@ -674,15 +461,6 @@
     <t>Kapkures Dispensary (Nakuru Central) [14733]</t>
   </si>
   <si>
-    <t>Olokurto Health Centre [15420]</t>
-  </si>
-  <si>
-    <t>Sogoo Health Centre [15605]</t>
-  </si>
-  <si>
-    <t>Sekenani Health Centre [15541]</t>
-  </si>
-  <si>
     <t>Neissuit Dispensary [15331]</t>
   </si>
   <si>
@@ -692,21 +470,12 @@
     <t>Timboiywo Dispensary [15724]</t>
   </si>
   <si>
-    <t>St Therese Dispensary [15667]</t>
-  </si>
-  <si>
-    <t>Ongata Rongai Health Centre [15440]</t>
-  </si>
-  <si>
     <t>Ngobit Dispensary [15349]</t>
   </si>
   <si>
     <t>Sipili Health Centre [15589]</t>
   </si>
   <si>
-    <t>Loitokitok District Hospital [15051]</t>
-  </si>
-  <si>
     <t>Upper Solai Health Centre [15763]</t>
   </si>
   <si>
@@ -719,21 +488,9 @@
     <t>Mother Kevin Dispensary (Catholic) [15232]</t>
   </si>
   <si>
-    <t>Sakutiek Health Centre [15516]</t>
-  </si>
-  <si>
-    <t>St Anthony Lemek Dispensary [15626]</t>
-  </si>
-  <si>
     <t>Njoro Health Centre [15358]</t>
   </si>
   <si>
-    <t>Sucos Hospital [14204]</t>
-  </si>
-  <si>
-    <t>Namelok Health Centre [15296]</t>
-  </si>
-  <si>
     <t>Naivasha District Hospital [15280]</t>
   </si>
   <si>
@@ -746,9 +503,6 @@
     <t>Piave Dispensary [15462]</t>
   </si>
   <si>
-    <t>Rombo Health Centre [15490]</t>
-  </si>
-  <si>
     <t>Ndabibi Dispensary [15318]</t>
   </si>
   <si>
@@ -837,96 +591,6 @@
   </si>
   <si>
     <t>South Horr Dispensary [15621]</t>
-  </si>
-  <si>
-    <t>Kaikor Sub County Hospital [14643]</t>
-  </si>
-  <si>
-    <t>Lokiriama Dispensary [15061]</t>
-  </si>
-  <si>
-    <t>Kalokol (AIC) Health Centre [14663]</t>
-  </si>
-  <si>
-    <t>Kapua Dispensary [14795]</t>
-  </si>
-  <si>
-    <t>Kerio Health Centre [14838]</t>
-  </si>
-  <si>
-    <t>Nadoto Dispensary [15275]</t>
-  </si>
-  <si>
-    <t>Nakurio Dispensary [15285]</t>
-  </si>
-  <si>
-    <t>Namukuse Dispensary [15301]</t>
-  </si>
-  <si>
-    <t>St Catherine's Napetet Dispensary [15634]</t>
-  </si>
-  <si>
-    <t>St Mary's Kalokol Primary Health Care Programme [15656]</t>
-  </si>
-  <si>
-    <t>St Monica Nakwamekwi Dispensary [15661]</t>
-  </si>
-  <si>
-    <t>St Patrick's Kanamkemer Dispensary [15662]</t>
-  </si>
-  <si>
-    <t>Elelea Sub-county Hospital [14436]</t>
-  </si>
-  <si>
-    <t>Lokori (AIC) Health Centre [15064]</t>
-  </si>
-  <si>
-    <t>Lokori Primary Health Care Programme [16324]</t>
-  </si>
-  <si>
-    <t>Lokwii Health center [15067]</t>
-  </si>
-  <si>
-    <t>Kaaleng Health Centre [14604]</t>
-  </si>
-  <si>
-    <t>Lokitaung Sub County Hospital [15062]</t>
-  </si>
-  <si>
-    <t>Lowarengak Health Center [15096]</t>
-  </si>
-  <si>
-    <t>Juluk Dispensary [14601]</t>
-  </si>
-  <si>
-    <t>Kainuk Health Centre [14645]</t>
-  </si>
-  <si>
-    <t>Kalemungorok Dispensary [14660]</t>
-  </si>
-  <si>
-    <t>Katilu Sub County Hospital [14818]</t>
-  </si>
-  <si>
-    <t>Lochwaangikamatak Dispensary [15045]</t>
-  </si>
-  <si>
-    <t>Lokichar (RCEA) Health Centre [15057]</t>
-  </si>
-  <si>
-    <t>Nakwamoru Health Centre [15292]</t>
-  </si>
-  <si>
-    <t>Kakuma Mission Hospital [14655]</t>
-  </si>
-  <si>
-    <t>Kakuma Refugee Hospital [14579]</t>
-  </si>
-  <si>
-    <t>Lokichogio (AIC) Health Centre [15059]</t>
-  </si>
-  <si>
-    <t>Makutano Health Centre (Turkana West) [15117]</t>
   </si>
   <si>
     <t>For Justifiable cases with validation errors which cannot be corrected, please explain here.</t>
@@ -1178,24 +842,12 @@
     <t>Other NP/KP Contacts</t>
   </si>
   <si>
-    <t>Oloolua Dispensary [17799]</t>
-  </si>
-  <si>
     <t>Lakeview Nursing Home [15004]</t>
   </si>
   <si>
     <t>Bahati Dispensary [14223]</t>
   </si>
   <si>
-    <t>Ngarua Catholic Dispensary [15338]</t>
-  </si>
-  <si>
-    <t>Salama Health Centre [15520]</t>
-  </si>
-  <si>
-    <t>Muthegera Dispensary [15263]</t>
-  </si>
-  <si>
     <t>St Joseph Nursing home [16409]</t>
   </si>
   <si>
@@ -1206,6 +858,60 @@
   </si>
   <si>
     <t>Mogotio Sub County Hospital [20005]</t>
+  </si>
+  <si>
+    <t>Kalalu Dispensary [14659]</t>
+  </si>
+  <si>
+    <t>Solio Dispensary [17575]</t>
+  </si>
+  <si>
+    <t>St Joseph Catholic Dispensary (Laikipia East) [15646]</t>
+  </si>
+  <si>
+    <t>Chumvi Dispensary [14391]</t>
+  </si>
+  <si>
+    <t>East Laikipia Dispensary [21122]</t>
+  </si>
+  <si>
+    <t>Ewaso Dispensary [14483]</t>
+  </si>
+  <si>
+    <t>Muramati Dispensary [15253]</t>
+  </si>
+  <si>
+    <t>Naibor Dispensary [21248]</t>
+  </si>
+  <si>
+    <t>Powys Dispensary [22950]</t>
+  </si>
+  <si>
+    <t>Bennedict Xvi Dispensary [10056]</t>
+  </si>
+  <si>
+    <t>Mutara Dispensary [15261]</t>
+  </si>
+  <si>
+    <t>Mwenje Dispensary [15266]</t>
+  </si>
+  <si>
+    <t>Nyahururu District Hospital [10890]</t>
+  </si>
+  <si>
+    <t>Nyahururu Private Hospital [10891]</t>
+  </si>
+  <si>
+    <t>Salama Health Centre (Laikipia West) [15520]</t>
+  </si>
+  <si>
+    <t>Survey Dispensary [15690]</t>
+  </si>
+  <si>
+    <t>Thome Dispensary [23140]</t>
+  </si>
+  <si>
+    <t>Unison Medical Clinic [17032]</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,12 +1074,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="0"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1437,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1755,35 +1455,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1928,35 +1604,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,9 +1643,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2700,7 +2371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -3138,1142 +2809,771 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AW39"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39" customWidth="1"/>
-    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="69" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="47" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="S1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="63" t="s">
-        <v>301</v>
+      <c r="W1" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL1" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN1" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO1" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT1" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV1" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW1" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="O2" s="16" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="63" t="s">
         <v>77</v>
       </c>
+      <c r="W2" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="X2" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL2" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO2" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR2" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS2" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU2" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW2" s="27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="W3" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z3" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK3" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM3" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO3" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR3" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS3" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU3" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="AV3" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW3" s="27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="W4" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y4" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AA4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB4" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AG4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI4" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM4" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO4" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS4" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV4" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW4" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="AC4" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="16" t="s">
-        <v>169</v>
+      <c r="G5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>69</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>170</v>
+        <v>214</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>171</v>
+        <v>118</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="W5" s="63" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK5" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM5" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN5" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO5" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR5" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU5" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW5" s="27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="M6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="M7" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="M8" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="M9" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="O10" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA10" s="62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="O11" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="O12" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="O13" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="O14" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="O15" s="62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="O16" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="O17" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="W6" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD6" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI6" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM6" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN6" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO6" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR6" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU6" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="V7" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC7" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO7" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR7" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU7" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="V8" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN8" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR8" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="AB9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR9" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="AB10" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN10" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR10" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="AE11" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
-      <c r="AE12" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I29" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I32" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="C599" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gTGLsvD6S0PNKD7DI/rQvHn7gOvS+XZBy6uBYxSYRtI4Nfcem7qAkI2q95Qdp1qIgJruvdMw6bZP4fkPOV8iiw==" saltValue="Tg1x2epQORencHt4WJAzIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4334,75 +3634,75 @@
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="G1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +3812,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="66"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -5143,7 +4443,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -5177,18 +4477,18 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="A11" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="J11" s="49">
         <f t="shared" ref="J11:AJ11" si="31">J8-J9</f>
@@ -5300,16 +4600,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="J12" s="49">
         <f t="shared" ref="J12:AI12" si="32">J7-J8</f>
@@ -5421,16 +4721,16 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
       <c r="I13" s="48" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="J13" s="49">
         <f t="shared" ref="J13:AI13" si="33">J10-J9</f>
@@ -5551,7 +4851,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="48" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="J14" s="49" t="e">
         <f>#REF!-J10</f>
@@ -5691,78 +4991,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="I16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="C17" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -5837,6 +5137,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="biPEfVR8nv3MOmGlNQsBp5F7bqiKb8gzQPTZ6iKOeFA9o9CO4VkwuRW+A6UvHn60LPEWvjwq8AroUQregTjxzw==" saltValue="Cq+IQKiKNNMN5Vmd15SNaQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="C17:D17"/>
@@ -5853,10 +5157,6 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
@@ -5978,75 +5278,75 @@
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="G1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +5456,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="66"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -6787,7 +6087,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -6821,18 +6121,18 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="A11" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="J11" s="49">
         <f t="shared" ref="J11:AJ11" si="6">J8-J9</f>
@@ -6944,16 +6244,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="J12" s="49">
         <f t="shared" ref="J12:AI12" si="7">J7-J8</f>
@@ -7065,16 +6365,16 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
       <c r="I13" s="48" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="J13" s="49">
         <f t="shared" ref="J13:AI13" si="8">J10-J9</f>
@@ -7195,7 +6495,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="48" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="J14" s="49" t="e">
         <f>#REF!-J10</f>
@@ -7335,78 +6635,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="I16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="C17" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -7481,6 +6781,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yt7eXD4jiHTOMUN2BDix72s2W0uOyieoXWEitdY+1L4ZZNe3raSSdIdo4IIvfiHb+LuQcn9ZPbBAvcsbPf6uSA==" saltValue="bVd/JFnwBP+onyLurRyuOQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -7497,10 +6801,6 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
@@ -7622,75 +6922,75 @@
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="G1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7800,7 +7100,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="66"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -8431,7 +7731,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -8465,18 +7765,18 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="A11" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="J11" s="49">
         <f t="shared" ref="J11:AJ11" si="6">J8-J9</f>
@@ -8588,16 +7888,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="J12" s="49">
         <f t="shared" ref="J12:AI12" si="7">J7-J8</f>
@@ -8709,16 +8009,16 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
       <c r="I13" s="48" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="J13" s="49">
         <f t="shared" ref="J13:AI13" si="8">J10-J9</f>
@@ -8839,7 +8139,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="48" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="J14" s="49" t="e">
         <f>#REF!-J10</f>
@@ -8979,78 +8279,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="I16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="C17" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -9125,6 +8425,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XTGd5g+zEdJKyL+Ye2hGiYwgZlXGtOUWjONxwyC4GKjaaMOIsGhFzdulLRfie8XqJ82JShxO5lklxKjuILR4JQ==" saltValue="2g5Yf5+ARkc2KT6iyHgOAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -9141,10 +8445,6 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
@@ -9266,75 +8566,75 @@
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="G1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9444,7 +8744,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="66"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -10075,7 +9375,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -10109,18 +9409,18 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="A11" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="J11" s="49">
         <f t="shared" ref="J11:AJ11" si="6">J8-J9</f>
@@ -10232,16 +9532,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="J12" s="49">
         <f t="shared" ref="J12:AI12" si="7">J7-J8</f>
@@ -10353,16 +9653,16 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
       <c r="I13" s="48" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="J13" s="49">
         <f t="shared" ref="J13:AI13" si="8">J10-J9</f>
@@ -10483,7 +9783,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="48" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="J14" s="49" t="e">
         <f>#REF!-J10</f>
@@ -10623,78 +9923,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="I16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="C17" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -10769,6 +10069,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jonEp2DkkuuMdmW/sTp9BwswAkvrVcWYY3TCpgTrRvTtHmFRJdAhUf8JEOjo6GzgXBV38RGRB/V62gSvaoVlMQ==" saltValue="fjObU97vfornIR9DD1pG4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -10785,10 +10089,6 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
@@ -10910,75 +10210,75 @@
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="G1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11088,7 +10388,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="66"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -11719,7 +11019,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -11753,18 +11053,18 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="A11" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="48" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="J11" s="49">
         <f t="shared" ref="J11:AJ11" si="6">J8-J9</f>
@@ -11876,16 +11176,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="J12" s="49">
         <f t="shared" ref="J12:AI12" si="7">J7-J8</f>
@@ -11997,16 +11297,16 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
       <c r="I13" s="48" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="J13" s="49">
         <f t="shared" ref="J13:AI13" si="8">J10-J9</f>
@@ -12127,7 +11427,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="48" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="J14" s="49" t="e">
         <f>#REF!-J10</f>
@@ -12267,78 +11567,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="I16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="C17" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -12413,11 +11713,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Q1hfIFbyJu77en5EqM4mRebZ7fk9BZjeGE4gh7amTenNuPTcDbqVdmRp/Dp7yWJRAIelgTsW1qFOZYM2ZRCCbw==" saltValue="pBLmT0d8/UvsELsibA6FnA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="I16:AJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AJ17"/>
@@ -12433,6 +11728,11 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A11:D13"/>
+    <mergeCell ref="I16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
